--- a/data/trans_camb/P16B18-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B18-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -611,22 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,86</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,06; 12,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,9; 16,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,06; 12,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,9; 16,43</t>
         </is>
       </c>
     </row>
@@ -687,22 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,23%</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,16; 15,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,93; 19,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,16; 15,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,93; 19,67</t>
         </is>
       </c>
     </row>
@@ -767,22 +767,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,23</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,2</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,97; 16,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,28; 11,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,97; 16,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,28; 11,6</t>
         </is>
       </c>
     </row>
@@ -843,22 +843,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,57%</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,19; 19,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,51; 13,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,19; 19,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,51; 13,8</t>
         </is>
       </c>
     </row>
@@ -923,22 +923,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,51</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,83</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,51</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 20,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 19,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 20,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 19,95</t>
         </is>
       </c>
     </row>
@@ -999,22 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,56%</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 25,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 25,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 25,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 25,17</t>
         </is>
       </c>
     </row>
@@ -1084,17 +1084,17 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>-6,88</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,88</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,58; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,58; 0,0</t>
         </is>
       </c>
     </row>
@@ -1155,22 +1155,22 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,88%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,88%</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,58; 0,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,58; 0,0</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1547,22 +1547,22 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,18</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,84; 10,98</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 9,19</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,84; 10,98</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 9,19</t>
         </is>
       </c>
     </row>
@@ -1623,22 +1623,22 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,57%</t>
         </is>
       </c>
     </row>
@@ -1661,22 +1661,22 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,02; 12,67</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 10,35</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,02; 12,67</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 10,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B18-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1547,22 +1547,22 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>6,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>6,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,84; 10,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 9,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,84; 10,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 9,19</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1623,22 +1623,22 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1661,34 +1661,191 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>6,67</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>4,18</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>6,67</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>4,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>2,84; 10,98</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 9,19</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>2,84; 10,98</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 9,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>7,28%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>4,57%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>7,28%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>4,57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
           <t>3,02; 12,67</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-0,73; 10,35</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>3,02; 12,67</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
         <is>
           <t>-0,73; 10,35</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>

--- a/data/trans_camb/P16B18-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Edad-trans_camb.xlsx
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 12,79</t>
+          <t>-2,99; 12,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 16,43</t>
+          <t>1,87; 14,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 12,79</t>
+          <t>-2,99; 12,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 16,43</t>
+          <t>1,87; 14,0</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 15,12</t>
+          <t>-2,98; 14,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 19,67</t>
+          <t>1,9; 16,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 15,12</t>
+          <t>-2,98; 14,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 19,67</t>
+          <t>1,9; 16,27</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,97; 16,41</t>
+          <t>3,18; 16,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 11,6</t>
+          <t>-5,5; 11,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,97; 16,41</t>
+          <t>3,18; 16,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 11,6</t>
+          <t>-5,5; 11,62</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 19,86</t>
+          <t>3,49; 19,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 13,8</t>
+          <t>-5,94; 13,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 19,86</t>
+          <t>3,49; 19,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 13,8</t>
+          <t>-5,94; 13,78</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 20,17</t>
+          <t>0,13; 21,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 19,95</t>
+          <t>-0,83; 19,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 20,17</t>
+          <t>0,13; 21,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 19,95</t>
+          <t>-0,83; 19,32</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 25,78</t>
+          <t>0,22; 27,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 25,17</t>
+          <t>-0,8; 24,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 25,78</t>
+          <t>0,22; 27,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 25,17</t>
+          <t>-0,8; 24,55</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-31,58; 0,0</t>
+          <t>-35,9; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-31,58; 0,0</t>
+          <t>-35,9; 0,0</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-31,58; 0,0</t>
+          <t>-35,9; 0,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,58; 0,0</t>
+          <t>-35,9; 0,0</t>
         </is>
       </c>
     </row>
@@ -1741,22 +1741,22 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>2,84; 10,98</t>
+          <t>3,4; 11,15</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 9,19</t>
+          <t>-0,77; 8,83</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>2,84; 10,98</t>
+          <t>3,4; 11,15</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 9,19</t>
+          <t>-0,77; 8,83</t>
         </is>
       </c>
     </row>
@@ -1817,22 +1817,22 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>3,02; 12,67</t>
+          <t>3,61; 12,75</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 10,35</t>
+          <t>-0,82; 9,97</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>3,02; 12,67</t>
+          <t>3,61; 12,75</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 10,35</t>
+          <t>-0,82; 9,97</t>
         </is>
       </c>
     </row>
